--- a/regionseng/10/agriculture/1. Annual crops.xlsx
+++ b/regionseng/10/agriculture/1. Annual crops.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\თბილისი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\თბილისი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="19">
   <si>
     <t>Wheat</t>
   </si>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -177,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,15 +195,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -236,7 +227,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +548,7 @@
     <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -577,8 +568,10 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,8 +623,14 @@
       <c r="Q2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -683,8 +682,14 @@
       <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -736,8 +741,14 @@
       <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -789,8 +800,14 @@
       <c r="Q5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -842,8 +859,14 @@
       <c r="Q6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -895,8 +918,14 @@
       <c r="Q7" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -948,8 +977,14 @@
       <c r="Q8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1036,14 @@
       <c r="Q9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1054,8 +1095,14 @@
       <c r="Q10" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1107,8 +1154,14 @@
       <c r="Q11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1213,14 @@
       <c r="Q12" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1213,8 +1272,14 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1266,8 +1331,14 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1319,8 +1390,14 @@
       <c r="Q15" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1372,8 +1449,14 @@
       <c r="Q16" s="7">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1508,14 @@
       <c r="Q17" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1478,8 +1567,14 @@
       <c r="Q18" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1626,14 @@
       <c r="Q19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1584,8 +1685,14 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1637,8 +1744,14 @@
       <c r="Q21" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1690,8 +1803,14 @@
       <c r="Q22" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S22" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -1743,8 +1862,14 @@
       <c r="Q23" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
@@ -1796,8 +1921,14 @@
       <c r="Q24" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1849,8 +1980,14 @@
       <c r="Q25" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1902,8 +2039,14 @@
       <c r="Q26" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -1955,8 +2098,14 @@
       <c r="Q27" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -2008,8 +2157,14 @@
       <c r="Q28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -2061,8 +2216,14 @@
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -2114,8 +2275,14 @@
       <c r="Q30" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -2167,8 +2334,14 @@
       <c r="Q31" s="7">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="7">
+        <v>10</v>
+      </c>
+      <c r="S31" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2220,8 +2393,14 @@
       <c r="Q32" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S32" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
@@ -2273,8 +2452,14 @@
       <c r="Q33" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2326,8 +2511,14 @@
       <c r="Q34" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
@@ -2379,8 +2570,14 @@
       <c r="Q35" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2432,8 +2629,14 @@
       <c r="Q36" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2485,8 +2688,14 @@
       <c r="Q37" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S37" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -2538,8 +2747,14 @@
       <c r="Q38" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -2591,8 +2806,14 @@
       <c r="Q39" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>17</v>
       </c>
@@ -2644,8 +2865,14 @@
       <c r="Q40" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
@@ -2697,8 +2924,14 @@
       <c r="Q41" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -2750,8 +2983,14 @@
       <c r="Q42" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S42" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -2803,8 +3042,12 @@
       <c r="Q43" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
@@ -2856,8 +3099,12 @@
       <c r="Q44" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -2909,8 +3156,12 @@
       <c r="Q45" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
@@ -2962,8 +3213,12 @@
       <c r="Q46" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +3238,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3304,7 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
